--- a/searches/abstracts/coding jmw/critique_abstracts_extracted.xlsx
+++ b/searches/abstracts/coding jmw/critique_abstracts_extracted.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\projects\2015growth\searches\abstracts\coding jmw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26024"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="critique_abstracts_extracted" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,79 +24,79 @@
     <t>x</t>
   </si>
   <si>
-    <t>Purpose: To assess the effects of dexmedetomidine on the duration of sensory and motor block, postoperative analgesia, hypotension, bradycardia, and side effects in patients undergoing spinal anesthesia. Methods: Two researchers searched MEDLINE, EMBASE, and the Cochrane controlled trial register independently for randomized controlled trials comparing dexmedetomidine with a placebo without any language restrictions. Results: A total of 412 patients from eight trials were included in this study. The results revealed that dexmedetomidine was statistically significant in prolonging the duration of sensory block (mean difference, MD = 73.55; 95% CI, [55.69, 91.40] P &lt; 0.00001, IÂ² = 89%) and motor block (MD = 59.11; 95% CI, [29.58, 88.65] P &lt; 0.00001, IÂ² = 91%) and the time to first request for postoperative analgesia (MD = 245.77, 95% CI, [143.53, 348.00] P &lt; 0.00001, IÂ² = 98%). The occurrence of hypotension (OR = 0.60, 95% CI, [0.3â€“1.23], P = 0.40, IÂ² = 3%) and side effects (OR = 0.9, 95% CI, [0.36â€“2.22], P = 0.88, IÂ² = 0%) was not significantly different between dexmedetomidine and placebo. However, dexmedetomidine was associated with more frequent bradycardia requiring atropine (OR = 7.55; 95% CI, [2.76â€“20.63], P = 0.63, I2 = 0%). Conclusions This meta-analysis has shown that dexmedetomidine prolonged the duration of spinal anesthesia and improved postoperative analgesia and did not increase the incidence of hypotension and adverse events, but needs more atropine to reverse bradycardia. (PsycINFO Database Record (c) 2014 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Previous studies examining the possible role of the methylenetetrahydrofolate reductase (MTHFR) polymorphisms in the development of schizophrenia (SZ) and bipolar disorder (BPD) have provided inconclusive findings, this meta-analysis was therefore designed to get a more reliable assessment. A total of 38 articles were identified through a search of electronic databases, up to 27 February 2014. Odds ratios (ORs) with 95 % confidence interval (CIs) were calculated using random effects models. Meta-analysis showed that MTHFR C677T was significantly associated with SZ, the highest OR was found for the recessive model (for TT vs. CT + CC: OR = 1.34, 95 % CI: 1.18â€“1.53); a marginal association of MTHFR C677T with increased risk of BPD has also been found for the recessive model (OR = 1.26, 95 % CI: 1.00â€“1.59). Subgroup analysis by ethnicity indicated that the significant association with SZ and BPD existed among Asian and African populations, but not for the white. MTHFR A1298C was significant associated with SZ, the highest OR for the dominant model (OR = 1.13, 95 % CI: 1.03â€“1.24). Subgroup analysis indicated a significant association with SZ existed in Asian populations, not among the white populations and no significant association was detected between the MTHFR A1298C and BPD in all groups. We conclude that MTHFR polymorphism is associated with SZ and BPD among Asian, African populations, but not the white. (PsycINFO Database Record (c) 2015 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Tested reports in international literature on the efficacy of carbamazepine (CBZ) in children with attention deficit hyperactivity disorder (ADHD) features through a meta-analysis. Out of 29 reports that dealt with CBZ with regard to behavior problems, activity level, and CBZ in children, 7 open studies and 3 double blind placebo controlled studies provided sufficient information for meta-analysis. These were coded for 13 characteristics, including S demographics, diagnostic features, study design, medication, and side-effects. Therapeutic responses were significant in the open studies. There was a positive correlation between duration of treatment and positive outcome. The remaining 3 studies show that CBZ was significantly more effective than placebo at controlling target symptoms. It is concluded that despite the lack of attention to CBZ, there is preliminary evidence that it may be an effective alternate treatment in children with ADHD. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>Background: Obstructive sleep apnea (OSA), caused by the obstruction of the upper airway, is the most common type of sleep apnea. Continuous positive airway pressure (CPAP) and positional therapy have been shown to be effective to improve positional OSA. Aim: To compare the effectiveness of positional therapy versus CPAP on positional OSA. Methods: Prospective randomized trials were systematically searched from the OVID databases. The trials comparing positional therapy versus CPAP in patients with positional OSA were included. Apnea-hypopnea index (AHI), mean oxygen saturation level, arousal index, sleep efficiency, and sleep time were the outcomes of this meta-analysis. Results: Three crossover trials were identified from Canada, New Zealand, and United States from 1999 to 2010. A total of 71 patients were randomly assigned to receive CPAP or positional therapy and the mean age of patients was 51 y. Positional therapy showed higher AHI (mean difference, MD: 4.28, 95% CI: 0.72â€“7.83) and lower oxygen saturation level (MD: âˆ’1.04, 95% CI: âˆ’1.63 to âˆ’0.46) than CPAP. It showed no distinct advantage over CPAP in terms of arousal index, sleep efficiency, and total sleep time, but CPAP reduced sleep time in the supine position. Conclusion: CPAP is superior to positional therapy in reducing the severity of sleep apnea and increasing the oxygen saturation level in patients with positional OSA. (PsycINFO Database Record (c) 2014 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Comments on an article by Rob B. Briner &amp; Denise M. Rousseau (see record [rid]2011-04912-002[/rid]). Briner and Rousseau's characterization of a systematic review as a penultimate procedure for evidence-based practice in applied psychology is misleading in that a systematic review is likely to unnecessarily discard useful data leading to potentially erroneous conclusions that can adversely affect workers, organizations, and the public. Furthermore, although there is much to like about Briner and Rousseau's identification of shortcomings in some current efforts to generate cumulative knowledge within practice-oriented domains of applied psychology, their discussion confounds the usefulness of meta-analysis as a research methodology with researchers' use of meta-analytic methods. This distinction between methodology and methodologist is important, as current meta-analytic methodology, along with some of the recommendations in Briner and Rousseau's commentary, has considerable potential for advancing evidence-based practice beyond that of the so-called systematic review. Slavin's notion of a "best-evidence synthesis" that combines the optimal features of meta-analysis with qualitative data and varied stakeholder input would appear to still provide the most promising means for generating "best evidence" and "best practice" in applied psychology. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>The authors conducted a meta-analysis of C. E. Rusbult's Investment Model of commitment. Across 52 studies, including 60 independent samples and 11,582 participants, satisfaction with, alternatives to, and investments in a relationship each correlated significantly with commitment to that relationship. Moreover, these three variables collectively accounted for nearly two-thirds of the variance in commitment. Commitment, in turn, was found to be a significant predictor of relationship breakup. Support for the model was obtained in predicting commitment in both relational domains (e.g., commitment to a romantic partnership) and nonrelational domains (e.g., commitment to one's job), but was significantly stronger in relational domains. Additional moderator analyses suggested that the associations between commitment and its theorized bases vary minimally as a function of demographic (e.g., ethnicity) or relational (e.g., duration) factors. The authors review theoretical strengths and shortcomings of the Investment Model and identify directions for future research. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>Background: Depression is a major burden for the health-care system worldwide. Most care for depression is delivered by general practitioners (GPs). We assessed the rate of true positives and negatives, and false positives and negatives in primary care when GPs make routine diagnoses of depression. Methods: We undertook a meta-analysis of 118 studies that assessed the accuracy of unassisted diagnoses of depression by GPs. 41 of these studies were included because they had a robust outcome standard of a structured or semistructured interview. Findings: 50,371 patients were pooled across 41 studies and examined. GPs correctly identified depression in 47.3% (95% CI 41.7% to 53.0%) of cases and recorded depression in their notes in 33.6% (22.4% to 45.7%). 19 studies assessed both rule-in and rule-out accuracy; from these studies, the weighted sensitivity was 50.1% (41.3% to 59.0%) and specificity was 81.3% (74.5% to 87.3%). At a rate of 21.9%, the positive predictive value was 42.0% (39.6% to 44.3%) and the negative predictive value was 85.8% (84.8% to 86.7%). This finding suggests that for every 100 unselected cases seen in primary care, there are more false positives (n=15) than either missed (n=10) or identified cases (n=10). Accuracy was improved with prospective examination over an extended period (3â€“12 months) rather than relying on a one-off assessment or case-note records. Interpretation: GPs can rule out depression in most people who are not depressed; however, the modest prevalence of depression in primary care means that misidentifications outnumber missed cases. Diagnosis could be improved by re-assessment of individuals who might have depression. (PsycINFO Database Record (c) 2015 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Numerous international studies have been completed on the issue of personality differences between spiritual and religious people, although none of these studies have ever been conducted in Italy. More specifically, two tools have been used to analyse these differences: the Big Five Questionnaire (Caprara, Barbaranelli, Borgogni, 1993) and the RASâ€”Scala di Atteggiamento Religioso (Religious Attitude Scale) (Laudadio, Baumgartner, D'Alessio, in press), which were administered to a sample of 3,019 people (52.26% females) with an average age of 40. The analyses confirm a relationship between the dimensions of "Personality", "Religiosity" and "Spirituality". The cluster analysis shows that "Religious Believers" are more 'Conscientious' and 'Friendly' but less 'Energetic' and 'Emotionally Stable' compared to the other two groups. This result is in line with what has been shown by Saregleu (2002) in the conclusion of his meta-analysis. Numerous gender differences have been observed regarding the relationship between these two constructs and certain features, which may be attributable to the specific characteristics of Italians in relation to the dimensions of "spirituality" and "religiosity". (PsycINFO Database Record (c) 2013 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Previous studies suggest that physical activity may be protective for dementia and cognitive impairment. We report findings comparing leisure-time and work-related physical activity from the Caerphilly Prospective study (CaPS) with dementia and cognitive impairment not dementia (CIND) after around 16 years of follow-up. We synthesized our results with a meta-analysis specifically testing if length of follow-up was associated with the size of any association. Age-adjusted models found no real association with dementia, and if anything increased risk for CIND (odds ratio (OR) highest versus lowest tertile 2.61, 95% CI 1.58 to 4.31), though this was attenuated after adjustment for other confounders (OR highest versus lowest tertile 1.38, 95% CI 0.78 to 2.44). There was no evidence that this differed by type (vascular versus non-vascular) of cognitive disease. Meta-analysis of other published effect estimates showed a protective effect of physical activity on cognitive impairment (OR 0.66, 95% CI 0.52 to 0.85) but with significant heterogeneity which was partially explained by length of follow-up (p = 0.03). A protective association was also seen for dementia (OR 0.78, 95% CI 0.65, 0.94), which did not appear to be related to follow-up length but there was evidence of small study bias (p = 0.002) suggesting an absence of small null studies. The apparent protective effects of physical activity on cognitive health may partially reflect reverse causation and current estimates may be overly optimistic in terms of cognitive benefits. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Attachment theory suggests that childrenâ€™s attachment insecurity plays a key role in the development of anxiety. In the present study we evaluated the empirical evidence for the link between insecure attachment and anxiety from early childhood to adolescence. A meta-analysis of 46 studies, from 1984 to 2010, including 8,907 children, was conducted. The results show an overall effect size of r = .30, indicating that attachment is moderately related to anxiety. Moderator analyses indicated that ambivalent attachment showed the strongest association with anxiety. Further, the relation was stronger during adolescence, when attachment and anxiety were measured through questionnaires, when the informant was the child, when attachment was measured as internal working model, in cross-sectional studies, and in studies conducted in Europe. No difference was found between studies that measured anxiety as symptoms or as a disorder, and when different kinds of anxiety were considered. (PsycINFO Database Record (c) 2014 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Reviews the book, Pain management: Evidence, outcomes and quality of life--A sourcebook edited by HarriÃ«t Wittink and Daniel Carr (2008). There is a significant need to understand the phenomena of pain and to know which treatments reduce pain. Currently, insufficient evidence based data are available for many pain treatments to enable reliable evaluation of effectiveness. The collections of invited chapters contained in this book go some way to bridging this gap. The focus of this book is on topics relating to effective pain management. The book contains 24 chapters that have relevance for clinicians, educators and researchers of all health disciplines. Topics covered in the book are comprehensive including health outcomes and treatment effectiveness in pain medicine, qualitative research with people who live with chronic pain, determining and measuring patient treatment preferences, assessment of pain in clinical trials, the placebo effect in clinical pain trials, systematic reviews and meta-analyses of intervention studies, paediatrics and pain outcomes, headache and outcomes measurement in cancer pain. This text makes an important contribution to health professionals across disciplines that are requiring a resource for the use of measures and tools that may be used to assess evidence surrounding medical interventions to relieve pain. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>Reports an error in "Cancer-related fatigue: A systematic and meta-analytic review of non-pharmacological therapies for cancer patients" by Maria Kangas, Dana H. Bovbjerg and Guy H. Montgomery (Psychological Bulletin, 2008[Sep], Vol 134[5], 700-741). The URL to the Supplemental Materials for the article is listed incorrectly in two places in the text. The incorrect listings appear on p. 704 (in the last two lines of the third paragraph) and on p. 705 (in the third and fourth lines of the first paragraph in the second column). The correct URL for the Supplemental Materials is http://dx.doi.org/10.1037/a0012825.supp, which is provided on the first page of the article beneath the abstract. (The following abstract of the original article appeared in record [rid]2008-11487-005[/rid].) Cancer-related fatigue (CRF) is a significant clinical problem for more than 10 million adults diagnosed with cancer each year worldwide. No "gold standard" treatment presently exists for CRF. To provide a guide for future research to improve the treatment of CRF, the authors conducted the most comprehensive combined systematic and meta-analytic review of the literature to date on non-pharmacological (psychosocial and exercise) interventions to ameliorate CRF and associated symptoms (vigor/vitality) in adults with cancer, based on 119 randomized controlled trials (RCTs) and non-RCT studies. Meta-analyses conducted on 57 RCTs indicated that exercise and psychological interventions provided reductions in CRF, with no significant differences between these 2 major types of interventions considered as a whole. Specifically, multimodal exercise and walking programs, restorative approaches, supportive-expressive, and cognitive-behavioral psychosocial interventions show promising potential for ameliorating CRF. The results also suggest that vigor and vitality are distinct phenomena from CRF with regard to responsiveness to intervention. With improved methodological approaches, further research in this area may soon provide clinicians with effective strategies for reducing CRF and enhancing the lives of millions of cancer patients and survivors. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>Music therapy outcome research frequently involves comparisons between groups on continuous scales of psychological constructs. Describing such differences only through statistical tests reduces the existing complexity and creates an artificial and potentially misleading dichotomy. The interpretation of the magnitude of a difference found on a psychological scale is often not straightforward, but can be greatly facilitated and improved by using effect sizes. Cohen's (1988) benchmarks allow for intuitive judgements and enable comparisons between different scales. An example of a study of the effects of music therapy on self-esteem shows how the use of effect sizes can change the interpretation of a research result. Effect sizes have important applications in many fields of music therapy research, including primary studies as well as meta-analyses, and planning of research as well as reporting of research results. Because of their intuitiveness, they may help to bridge the "gap" between research and clinical practice. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>This paper reports results from two meta-analyses of the potential individual-level outcomes of exposure to workplace bullying. After introducing a theoretical framework for the possible relationships between bullying and outcomes, Study 1 summarizes 137 cross-sectional effect sizes from 66 independent samples (N = 77,721). The findings show that exposure to bullying is associated with both job-related and health- and well-being-related outcomes, such as mental and physical health problems, symptoms of post-traumatic stress, burnout, increased intentions to leave, and reduced job satisfaction and organizational commitment. Nonsignificant or weak associations were established for absenteeism, performance, self-perceptions, and sleep. Study 2 examines longitudinal relationships between bullying and mental health and absenteeism, respectively. Based on prospective associations from 13 samples (N = 62,916), workplace bullying influenced mental health problems over time, while baseline mental health problems were associated with a similar increased risk of subsequent reports of exposure to bullying. The long-term effect of exposure to bullying on absenteeism was rather weak. To summarize, the two meta-analyses provide robust evidence for the detrimental effects of workplace bullying that are in line with the theoretical framework presented. The findings have implications for the development of strategies against bullying. Directions for future research are discussed. (PsycINFO Database Record (c) 2013 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Introduction: The occurrence of depression during pregnancy is a frequent situation that must be distinguished from postpartum depression. It raises many questions regarding its complications and therapeutic options. Objectives: To provide a systematic review of available data on prevalence, risk factors, and adverse outcomes of antepartum depression, as well as on screening tools and treatments currently available. Methods: Studies, reviews, and meta-analyses were searched through the Pubmed and Embase databases. Articles related to postpartum depression or specifically focusing on bipolar disorder were excluded. Results: Epidemiology: Prevalence is estimated between 5 and 15%. Risk factors, in addition to those of any depression, are an ambivalent attitude towards pregnancy, previous miscarriages, and medically-assisted or complicated pregnancies. Diagnosis and screening: No specific tool has yet been designed to diagnose or screen antepartum depression, but some scales (EPDS, PRIME-MD PHQ) have been validated. Adverse outcomes: For the mother, adverse outcomes are those of any depression, in addition to an increased risk of delivery complications and of postpartum depression. For the child, there is an increased risk for preterm birth, low birth-weight, and possibly sudden death. Treatments: Tricyclic antidepressants are widely described as safe during pregnancy. SSRIs show much reassuring data, even though recent studies have raised concerns about cardiac malformations and persistent pulmonary hypertension of the newborn. Electroconvulsive therapy is only indicated in the most severe cases but appears secure under specific safety measures. Most psychotherapies have not been specifically assessed during pregnancy. Other treatments (bright light therapy, rTMSâ€¦) have shown some promising but not robust results. Conclusion: Antepartum depression is frequent, and potentially severe if not treated. Validation of specific screening tools is warranted. Pharmacological treatment should not be postponed in cases of severe depression. Regarding moderate depressions, it appears reasonable to turn to non-pharmacological treatments, primarily psychotherapies, which therefore should be more thoroughly studied. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Aim: To determine the effects of computer-based interventions aimed at reducing alcohol consumption in adult populations. Methods: The review was undertaken following standard Cochrane and Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) guidance for systematic reviews. The literature was searched until December 2008, with no restrictions on language. Randomized trials with parallel comparator groups were identified in the form of published and unpublished data. Two authors independently screened abstracts and papers for inclusion. Data extraction and bias assessment was undertaken by one author and checked by a second author. Studies that measured total alcohol consumption and frequency of binge drinking episodes were eligible for inclusion in meta-analyses. A random-effects model was used to pool mean differences. Results: Twenty-four studies were included in the review (19 combined in meta-analyses). The meta-analyses suggested that computer-based interventions were more effective than minimally active comparator groups (e.g. assessment-only) at reducing alcohol consumed per week in student and non-student populations. However, most studies used the mean to summarize skewed data,which could be misleading in small samples. A sensitivity analysis of those studies that used suitable measures of central tendency found that there was no difference between intervention and minimally active comparator groups in alcohol consumed per week by students. Few studies investigated non-student populations or compared interventions with active comparator groups. Conclusion: Computer-based interventions may reduce alcohol consumption compared with assessment-only; the conclusion remains tentative because of methodological weaknesses in the studies. Future research should consider that the distribution of alcohol consumption data is likely to be skewed and that appropriate measures of central tendency are reported. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Objectives: We integrated and compared meta-analytic findings across diverse behavioral interventions to characterize how well they have achieved change in health behavior. Methods: Outcomes from 62 meta-analyses of interventions for change in health behavior were quantitatively synthesized, including 1011 primary-level investigations with 599559 participants. Content coding suggested 6 behavioral domains: eating and physical activity, sexual behavior, addictive behaviors, stress management, female-specific screening and intervention behaviors, and behaviors involving use of health services. Results: Behavior change interventions were efficacious (mean effect sizes = 0.08â€“0.45). Behavior change was more evident in more recent metaanalyses; those that sampled older interventions and literatures or sampled more published articles; those that included studies that relied on self-report, used briefer interventions, or sampled fewer, older, or female participants; and in some domains (e.g., stress management) more than others (e.g., sexual behaviors). Conclusions: Interventions improved health-related behaviors; however, efficacy varied as a function of participant and intervention characteristics. This meta-synthesis provides information about the efficacy of behavioral change interventions across health domains and populations; this knowledge can inform the design and development of public health interventions and future meta-analyses of these studies. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>This study presents a meta-analysis of 25 individual differences proposed to be related to effective leadership, with an emphasis on comparing trait-like (e.g. personality and intelligence) to state-like individual differences (e.g. knowledge and skills). The results indicate that although both trait-like (achievement motivation, energy, dominance, honesty/integrity, self-confidence, creativity, and charisma) and state-like (interpersonal skills, oral communication, written communication, administrative/management skills, problem-solving skills, and decision making) individual differences were consistent predictors of effective leadership, the impact of trait-like and state-like individual differences was modest overall and did not differ substantially (Ï&lt;U+FFFD&gt; = .27 and .26, respectively). Finally, organizational level of the leader, method of predictor and criterion measurement, and organization type moderated the relationship between individual differences and effective leadership. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Interventional pain management techniques are considered for patients whose pain proves refractory to conventional treatment. According to the evidence-based medicine (EBM) guidelines, the highest level of evidence for efficacy and safety of a treatment is generated in high-quality randomized controlled trials and systematic reviews. A randomized controlled trial is defined as an experiment that determines the influence of an intervention on the natural history of the disease, which means that the comparative group should receive placebo, which is a sham intervention in case of the interventional pain management techniques. The systematic review summarizes in a structured way the results of the available information. When randomized controlled trials are available, observational studies will often be discarded. As new information on a treatment becomes available the perceived value may change, thus determining the survival time of clinical evidence. This survival time is not different when based on randomized or nonrandomized studies. The inclusion criteria are an important component of the randomized controlled trial and are designed to test a treatment in a homogeneous patient population. As interventional pain management techniques are mainly used for the management of spinal pain, it needs to be stressed that there is no gold standard for the diagnosis. This lack of validated standard diagnostic procedures is at the origin of different patient selection criteria, which makes the interpretation of the different randomized controlled trials and the meta-analyses very difficult. Moreover, the extrapolation of randomized controlled trials with carefully selected patient populations to daily practice is a major problem. Randomized controlled trials in interventional pain management techniques often prove to be underpowered, which can be attributed to the difficulty in motivating patients and the referring physicians to participate in a trial where there is 50% chance of receiving a placebo/sham for intractable pain. Furthermore, the validity of sham intervention as a reflection of the natural course of the disease is questioned. It is stated that any new technique should prove to be at least equally effective as the best available treatment option, which offers the possibility of comparing two groups, both receiving active treatment. The reference treatment may be pharmacological or a rehabilitation program (cognitive behavioral) in which case blinding becomes a problem. It has been demonstrated that large observational studies with a cohort or case-control design do not systematically overestimate the magnitude of the associations between exposure and outcome as compared with the results of randomized controlled trials. There is an urgent need for guidelines on performing prospective cohort trials that should be designed to confirm or refute the anecdotal findings from retrospective studies. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>The Ainu are an ethnic minority in northern Japan. Their overall IQ was estimated to be somewhat below that of the Japanese (97.2) from the meta-analysis of mostly pre-war Japanese data (N =975). Moreover, they may have higher cranial capacity than Japanese and their IQ profile is leaning toward non-verbal skills, which suggest a genetic relationship to Arctic peoples. (PsycINFO Database Record (c) 2014 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Blushing was recently introduced in the DSMâ€&lt;U+FFFD&gt;5 as a â€œhallmarkâ€&lt;U+FFFD&gt; physiological response of social anxiety disorder, and it is now acknowledged as an important aspect of social anxiety. Three metaâ€&lt;U+FFFD&gt;analyses were performed to examine the association between blushing and social anxiety. The relationship between blushing and social anxiety was strong for selfâ€&lt;U+FFFD&gt;perceived blushing, small for physiological blushing, and medium for observed blushing. In addition, the relationship between selfâ€&lt;U+FFFD&gt;perceived blushing and social anxiety was stronger when social anxiety was measured as a state and when blushing was measured using questionnaires with five or more items. Results suggest that socially anxious people perceive themselves as blushing more than do less socially anxious people and overestimate the intensity of their physiological blushing. (PsycINFO Database Record (c) 2015 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Dual-task methodology has been increasingly used to assess cognitive motor interference while walking. However, whether the observed dual-task-related gait changes are systematically related to methodological variations remains unclear and researchers still lack knowledge of what cognitive task to use in different groups for clinical purposes or for research. We systematically reviewed experimental studies that measured gait performance with and without performing concurrent cognitive task. Our results suggest that cognitive tasks that involve internal interfering factors seem to disturb gait performance more than those involving external interfering factors. Meta-analysis results show that the overall effect of different cognitive tasks was prominent in gait speed. In healthy participants, meta-regression analysis suggests strong associations between age and speed reduction under dual-task conditions and between the level of cognitive state and speed reduction under dual-task conditions. Standardizing research methodologies, as well as improving their ecological validity, enables better understanding of dual-task-related gait changes in different populations and improves, in turn, our understanding of neural mechanisms and gait control in general in content. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>Reports an error in "Efficacy of escitalopram in the treatment of major depressive disorder compared with conventional selective serotonin reuptake inhibitors and Venlafaxine XR: A meta-analysis" by Sidney H. Kennedy, Henning F. Andersen and Raymond W. Lam (Journal of Psychiatry &amp; Neuroscience, 2006[Mar], Vol 31[2], 122-131). The following article should have been cited as reference 16 instead of the article that is currently cited: Baldwin DS, Cooper JA, Huusom AKT, et al. A double-blind, randomized, parallel-group, flexible-dose study to evaluate the tolerability, efficacy and effects of treatment discontinuation with escitalopram and paroxetine in patients with major depressive disorder. Int Clin Psychopharmacol 2006; 21:159-69. (The following abstract of the original article appeared in record [rid]2007-03392-007[/rid]). Objective: Escitalopram is the most selective of the selective serotonin reuptake inhibitor (SSRI) antidepressants. Previous studies have suggested that escitalopram is superior to citalopram in efficacy. We conducted a meta-analysis of studies in which escitalopram was compared with other antidepressants to assess the relative efficacy of these agents. Methods: Data from all randomized, double-blind studies in major depression in which escitalopram was compared with active controls (citalopram, fluoxetine, paroxetine, sertraline and venlafaxine XR [extended release]) were pooled. The 10 studies were conducted in both specialist settings and general practice. Patients met the criteria of the Diagnostic and Statistical Manual of Mental Disorders, fourth edition (DSM-IV), for major depressive disorder and were at least 18 years old. In all but 2 studies, patients were required to have a score of 22 or more on the Montgomery-Ã…sberg Depression Rating Scale (MADRS). The primary outcome measure was the estimated difference in treatment effect in MADRS total score at the end of the study. Secondary outcome measures were the response to treatment (defined as a â‰¥ 50% reduction in baseline MADRS total score) and remission rate (defined as MADRS total score â‰¤ 12 at end of study). Results: A total of 2687 patients were included in the analyses (escitalopram n = 1345, conventional SSRIs n = 1102, venlafaxine XR n = 240). Escitalopram was superior to all comparators in overall treatment effect, with an estimated difference in treatment effect of 1.07 points (95% confidence interval [CI] 0.42-1.73, p &lt; 0.01), and in response (odds ratio [OR] 1.29, 95% CI 1.07-1.56, p &lt; 0.01) and remission (OR 1.21, 95% CI 1.01-1.46, p &lt; 0.05) rates. In analysis by medication class, escitalopram was significantly superior to the SSRIs and comparable to venlafaxine, although the overall results do not necessarily reflect a significant difference between escitalopram and individual SSRIs. These results were similar in the severely depressed population (patients with baseline MADRS â‰¥ 30). The withdrawal rate due to adverse events was 6.7% for escitalopram compared with 9.1% for the comparators (p &lt; 0.05). Conclusions: In this meta-analysis, escitalopram showed significant superiority in efficacy compared with the active controls. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
-  </si>
-  <si>
-    <t>This paper examines the impact of quality-score weights in meta-analysis. A simulation examines the roles of study characteristics such as population effect size (ES) and its variance on the bias and mean square errors (MSEs) of the estimators for several patterns of relationship between quality and ES, and for specific patterns of systematic deviations related to quality differences. The bias and MSEs of the estimators are large when ESs from low-quality studies deviate from the population ES in specific ways, and bias does not approach zero in these cases. Because meta-analysts can never know whether biases due to quality exist, and because quality weights lead to bias in almost every condition studied, we recommend against the use of quality weights. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
-  </si>
-  <si>
-    <t>To examine agreement on Rorschach Comprehensive System (CS; Exner, 2004) interpretations, 55 patient protocols were interpreted by 3 to 8 clinicians across 4 data sets on a representative set of 29 characteristics. Substantial reliability was observed across data sets, although a problematic design produced lower results in one. Unexpectedly, a Q-sort task had slightly lower reliability than a simple rating task. As expected, scales that summarized judgments had higher agreement than judgments to individual interpretive statements, and some clinicians produced more generalizable inferences than others. Interpretations for all clinicians were more strongly associated with patients' psychometric true scores (aggregated judgment M range = .82 to .92) than with the judgments of other clinicians (range = .76 to .89). Compared to meta-analyses of interrater reliability in psychology and medicine, the findings indicate these clinicians could reliably interpret Rorschach CS data (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
+    <t>Relations between H. F. Gollob's (see 43:2) factor-analytic variation (FANOVA) analysis and an Eckart-Young resolution of original data are compared and illustrated with a fictitious body of data. When transformations of factor matrices (rotation of axes) are included in the analysis, a number of points of equivalence occur between the 2 analyses. A major point of difference concerns representation of mean responses. In the FANOVA model, mean responses to stimuli are taken as characteristics of the stimuli; in the Eckart-Young resolution of original data, the mean responses are described in terms of the centroid of factor scores. A preference is stated for later representation as an aspect of description of the population of a person. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the study by L. L. Vogel (1997) in that the article would have had more current relevance if the studies compared the earnings of persons with disabilities to persons with no disabilities that have received the same training. A comparison of these 2 populations would procure results that could directly affect the type of services needed and the manner in which they are currently delivered. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the article by W. R. Staines (see record [rid]2001-14574-005[/rid]), which found that in the early states, bilateral movement enhanced activation in the primary motor cortex compared with unilateral paretic hand movement. However, at later stages, activation of the affected hemisphere did not differ between unilateral and bilateral movement. The present authors obtained analogous results in a group of 30 patients with hemiplegic stroke. These Ss were examined with transcranial Doppler ultrasonography (TCD) within the first week, 1 mo, and 6 mo after stroke. As previously reported (1999), the response of the damaged side to contralateral movement was low during the 1st 2 measurements, but increased with time and reached a normal pattern at the last measurement. In a reply, Staines et al note that using differing but complementary techniques (TCD and functional magnetic resonance imaging) converged to the same conclusion about blood flow velocity after stroke. Data from these two studies provide evidence of possible interhemispheric influences on cortical motor reorganization early after stroke. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>In defending his work on "The Rorschach response and factor analysis" (see 22: 3031) against Thorndike's criticism (see 24: 3997), the author points out the difference between a multi-experimental design and a uni-experimental design such as the Rorschach and emphasizes its justification and usefulness. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the article by R. D. Marshall et al (see record [rid]1999-01651-001[/rid]) which raised considerations regarding the diagnosis of acute stress disorder. According to the present authors, Marshall et al confounded evidence used for the construct (predictive) validity of dissociative symptoms in acute stress disorder with their importance as symptoms per se. Marshall et al's contention that since dissociative symptoms are a less than perfect predictor of posttraumatic stress disorder (PTSD), then such symptoms should be dropped from acute stress disorder, represents a tautological argument. Dissociative symptoms are only a minor component of the current Diagnostic and Statistical Manual of Mental Disorders-IV (DSM-IV) PTSD criteria, as are amnesia and numbness. If anything, the problem may be that PTSD needs redefinition. The present authors discuss "pathologization" issues, and the fact that some studies that were not cited have found a clear and strong predictive power for dissociative symptoms. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Jackson and Fulford (1997), using the tools of analytic philosophy, have proposed a model allowing principled differentiation between spiritual experience and psychotic symptoms based on the personal values of the subject, a cognitive problem-solving model. Spiritual experience is described as positively evaluated psychotic experience, which enables the subject to do more than he or she normally does. In the present paper, it is claimed that values and actions cannot alone always discriminate between religious experience and psychopathology. With reference to three case studies, drawn from the practice of one of us, it is argued that spirituality is not all about experience and that it cannot be understood without reference to the subject's personal history and spiritual tradition, however implicit or fragmented. This approach would allow an account of ordinary religious experience in those who have suffered ego disablement during mental illness. Drawing primarily on the Christian tradition, we argue that the use of theological criteria may allow levels of discrimination between spiritual experience and mental disorder not allowed for by philosophical psychopathology. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Reviews the literature on self-reported just world beliefs, specifically the relationship between questionnaire-derived beliefs in a just world and other psychological and demographic variables. Correlates of Z. Rubin and L. A. Peplau's (see PA, Vols 52:7481 and 55:9801) scale to measure just world beliefs are evaluated. Particular criticism is aimed at the multidimensional nature of the just world concept, and it is suggested that 3 worlds exist (just, unjust, and random) that are orthogonal. Suggestions are made about the development of an improved self-report measure and the direction of research into the etiology of a belief in a just world in individuals and in different cultures. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Discusses the strengths and weaknesses of the behavioral approach in psychotherapy and suggests that some of the weaknesses of the approach can be overcome by integrating it with client-centered and psychodynamic approaches. Some of the strengths of this approach include operationalization of therapeutic procedures, the systematic study of cognitions, and the notions of competence and skill training. It is contended that the weaknesses of the behavioral approach include the following: an overly narrow theory of human functioning; an ignoring of the importance of the therapeutic relationship; an avoidance of transference; a failure to measure the real environment and to assure generalization; an overestimating of the average behavioral clinician's success rates; an underestimating of the length of intervention required; a naÃ¯vetÃ© about family systems, institutions, and social systems; and an inability to admit personal and technical limits. It is further suggested that the clinician or theoretician interested in breaking down unnecessary barriers between schools of psychotherapy can choose from many alternative types of rapprochement. Some of the risks associated with an integrated model of psychotherapy are noted. (French abstract) (22 ref) (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Argues that the study by A. L. Kellermann et al (see record [rid]1993-01829-001[/rid]) that found that guns in the home increased the risk of suicide in the home was methodologically flawed. The author argues that 30% of suicides, 100% of unsuccessful suicide attempts and suicidal gestures, and physical decline as a risk factor for suicide were ignored, and results were biased toward gun control. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on an article by N. Campbell et al. (see record [rid]2013-23816-021[/rid]). The attraction to many men of so called â€œherbalâ€&lt;U+FFFD&gt; or â€œall-naturalâ€&lt;U+FFFD&gt; remedies for the treatment of erectile dysfunction is understandable. There is the perception that herbal compounds are somehow safer than prescription medicines. Also, in most cases, they are less expensive, and by ordering online, buyers have anonymity and can avoid the embarrassment of discussing erectile dysfunction with doctors and pharmacy staff. However, what most consumers do not realize is that many of these products do contain pharmaceutical agents, such as sildenafil or tadalafilâ€”otherwise, they likely would have no efficacy at all. In fact, the samples collected from convenience stores, filling stations, and customs seizures and studied using liquid chromatography/mass spectrometry by Campbell et al. demonstrated that phosphodiesterase type 5 (PDE5) inhibitor adulteration is widespread in purportedly herbal/natural over-the-counter dietary supplements. (PsycINFO Database Record (c) 2014 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on an article by H. Chen et al. (see record [rid]2010-07143-006[/rid]). Chen et al. explored the possibility of a biologic mechanism inhibiting the development of Parkinson disease (PD) in long-term smokers. Beta-hexachlorocyclohexane (B-HCH)â€”a persistent environmental contaminant, organochlorine pesticide, and environmental estrogenâ€”was found more often in patients with PD than in controls. B-HCH has high lipophilicity, elevated resistance to metabolism, extreme persistence in human tissues, and an estimated half-life of 10 years. It resists environmental cleansing and bioaccumulates in fatty tissues. The beneficial effect of smoking on prevention of development of PD may be through blocking harmful estrogenic effects of organochlorine pesticides such as the environmental estrogen B-HCH, which is highly concentrated in patients with PD. The environmental estrogens may interfere with normal physiologic estrogenic functions in the brain and body. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Responds to Thompson's (see record [rid]1981-07564-001[/rid]) comments on the present author's (see record [rid]1980-11573-001[/rid]) failure to replicate the findings of Thompson et al (see record [rid]1975-02523-001[/rid]) on the effects of scopolamine on tonic immobility durations. (9 ref) (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on an article by David Graeber (see record [rid]2011-18373-001[/rid]). The article is a trenchant reminder of how problematic the categories of political economy are for anthropological analysis. The first step in thinking beyond these categories is to excavate them, which Graeber does with his fascinating genealogy of the concept of desire in the Western philosophical tradition. To the extent that consumption studies have become ubiquitous and many of them fail to define or even think through what is meant by the term "consumption", Graeberâ€™s critique is all the more cogent. One of the key contributions of Graeberâ€™s approach, then, is to get us to consider the possibility of different models to analyze activities we have been lumping under the consumption rubric. Indeed, Graeber suggests in his history of Western desire that food plays a particular role: he sees it as key to the transition from medieval and Renaissance to modern notions of consumption, from erotics to gastronomics. Graeberâ€™s argument that we move beyond the categories of consumption and production fits very well with an interest in food preparation or cooking. A reexamination of the usefulness of consumption as a theoretical category opens up all kinds of new possibilities, and in this Graeber is right on target. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>T. A. Stoffregen and G. E. Riccio (see record [rid]1988-09630-001[/rid]) have presented a theory of orientation that dismisses the role of otolithic information in the perception of the direction of the gravitoinertial force (GIF). Their dismissal of otolithic involvement in GIF perception is not warranted because (a) the logic associated with their analysis is flawed, (b) the underwater experiments they analyzed do not reflect the isolated operation of otolithic function, and (c) they do not cite a large body of relevant evidence on otolithic function. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Presents several published statements that might be considered in evaluating H. Zucker's (see record [rid]1994-02818-001[/rid]) claims about the author's point of view regarding the responsibilities of the analytic theorist and therapist and the realities of the psychoanalytic process. It is argued that even the quotations Zucker uses to support his contentions are at odds with his interpretations of them. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Rejoins to the reply made by Joseph Wolpe (see record [rid]2011-17897-018[/rid]) to the comments, Lecture presented at Middlesex Hospital, London, August 6, 1959 (1969) and Effects of cognitive desensitization on avoidance behaviour (1957) made by the current authors on the original article, The Practice of Behavior Therapy (1969). Wolpe asserts that we have incorrectly attributed to him Jacobsonâ€™s position regarding the role of proprioceptive feedback from relaxed muscles in the inhibition of anxiety. As we have pointed out elsewhere, it was not clear from Wolpeâ€™s publications prior to 1966 that he did not at least implicitly agree with Jacobsonâ€™s theoretical position. Wolpeâ€™s proposed experiment, in which Ss are told â€œBe calm" when snake stimuli are presented, would contribute nothing to our understanding of this phenomenon. "Be calm" is simply one way of suggesting to a S that he not be afraid. In fact, we can similarly interpret the muscle relaxation induction as another way of saying â€œBe calm,â€&lt;U+FFFD&gt; and desensitization itself could then be seen as nothing more than suggestion. As far as "resensitization" is concerned, we find this to be another prevalent myth in the behavior modification literature; as we have pointed out elsewhere. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Lacan has left a teaching, mainly in his â€œseminarsâ€&lt;U+FFFD&gt;, which is often synthesized, simplified and reduced to a simple explanatory theory, principally regarding psychotic process. Such a simplifying view can become a discriminatory, iatrogenic conception of the psychotic person and of the psychotherapeutic (or psychoanalytical) treatment. In the first part of this paper, the author tries to show that Lacanâ€™s teaching was principally a transmission of the psychoanalysis itself, in different ways, as half-sayings, ambiguity, poetry and style, topology, mathemsâ€¦ Lacan passed himself on as a possibility of analytical opening, like in a cure. He does not generate a rational discourse, but he proposed several different theories as simple â€œvectorsâ€&lt;U+FFFD&gt;. In the second part, the author puts some concepts as â€œName of Father foreclosureâ€&lt;U+FFFD&gt;, â€œborromean knotâ€&lt;U+FFFD&gt; and â€œobject aâ€&lt;U+FFFD&gt; into a political (within the psychoanalytical community) and historical context. If those items of Lacanâ€™s teaching are diverted from their primal function of â€œvectorsâ€&lt;U+FFFD&gt; and are considered as explanatory theories, then they lose their pertinence and can lead to a stigmatizing conception and to possibly iatrogenic attitudes in the treatment. That will be examined further. (PsycINFO Database Record (c) 2012 APA, all rights reserved). (journal abstract)</t>
+  </si>
+  <si>
+    <t>Against the background of a condensed sketch of the psychotherapeutic tradition in Sweden, I indicate my own path to the International Federation of Psychoanalytic Societies (IFPS). The 1962 Forum, held in Amsterdam, at which the IFPS was founded, is depicted through a young man's eyes. Some viewpoints are given on the importance of the IFPS's existence. The development of the journal International Forum of Psychoanalysis is also described and commented on. (PsycINFO Database Record (c) 2014 APA, all rights reserved). (journal abstract)</t>
+  </si>
+  <si>
+    <t>Comments on an article by K. Smith et al. (see record [rid]2008-16335-004[/rid]). Smith et al. concluded that the prevalence of dementia and cognitive impairment is substantially higher among Indigenous than non-Indigenous Australians. A relationship between dementia and Helicobacter pylori (Hp)-I appears to exist based on comparable data. In the nervous system, Hp-I may be associated with autoimmune sequelae development observed in peripheral neuropathies and Alzheimers disease (AD). It would be interesting to know if Smith et al. considered comparable data in their Indigenous Australian participants who would be expected to present with high Hp-I prevalence. Such data may be important considering the many ways that Hp-I could influence the pathophysiology of dementia. Further pathogenetic mechanisms include conversion of fibrinogen into fibrin, induction of molecular mimicry by the saccharide part of lipopolysaccharides of Hp with host antigens, release of pro inflammatory and vasoactive agents, and induction of apoptotic processes. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments that the conclusions of E. Owens and J. Sweller (see record [rid]1989-38110-001[/rid]), in their article on problem solving (PS) as a learning device in mathematics, seem unduly pessimistic. The author argues that (1) it is important to distinguish among 3 types of PS strategies, (2) transfer should be viewed as a complex chain of processing rather than being treated as an afterthought to learning, and (3) general PS strategies can have an impact on the presence and extent of transfer and thus have a claim for inclusion in the math curriculum. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the article by A. Mason et al (1998) on the prevalence of Tourette syndrome of children ages 13â€“14 yrs in mainstream school populations. It is asserted that there is an increase in the prevalence of Tourette syndrome, based on a personal biased clinical impression. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on W. Timberlake's (see record [rid]1985-08659-001[/rid]) paper on behavioral regulation and set points, making a distinction between response-pattern set points and molar-behavioral set points and noting their implications for behavioral regulation theory. (PsycINFO Database Record (c) 2013 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the article by A. Farmer et al (see record [rid]2002-04106-007[/rid]), which examined whether self-reports of neuroticism and extraversion represent enduring vulnerabilities to depression. McWilliams says that the Farmer et al conclusion that neuroticism does not measure a vulnerability to depression and primarily reflects symptoms of depression is not warranted. Self-reports of neuroticism prospectively predict depression. Longitudinal studies support the Farmer et al conclusion that neuroticism is strongly associated with a person's current affective state. However, such studies also suggest that neuroticism is likely to have trait-like properties in addition to the state-like properties noted by Farmer et al. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>W. K. Bajwa et al (see record [rid]1992-39387-001[/rid]) reported elevated cholesterol levels in male and female panic disorder (PD) patients. A study of 3,126 male US Army veterans (aged 30â€“48 yrs) showed that Ss with PD had a nonsignificantly higher level of cholesterol than did Ss with major depression (MD) only, MD with anxiety, or none of these diagnoses. Thus, the PDâ€“cholesterol association may be less pronounced in men than in women. (PsycINFO Database Record (c) 2012 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>Comments on the article by J. Anooshian et al (see record [rid]1999-05120-006[/rid]) with respect to differences between the Diagnostic and Statistical Manual of Mental Disorders-III-Revised (DSM-III-R) diagnosis of somatoform pain disorder and the Diagnostic and Statistical Manual of Mental Disorders-IV (DSM-IV) diagnosis of pain disorder associated with both psychological factors and a general medical condition. While Anooshian et al suggest that some of their subjects had both diagnoses, the author indicates that the two diagnoses are mutually exclusive, because of the requirement of a general medical condition underlying the chronic pain observed in the DSM-IV diagnosis. (PsycINFO Database Record (c) 2013 APA, all rights reserved)</t>
   </si>
   <si>
     <t>jmw</t>
@@ -689,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -912,15 +912,15 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -929,207 +929,287 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="140">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="84">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="210">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="70">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="196">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="224">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="140">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="238">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="84">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="210">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="196">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="70">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="238">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="112">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="84">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="238">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="252">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="98">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="196">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="112">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="70">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="70">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="140">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="98">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="126">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>